--- a/Relevant Spreadsheets/Drivers.xlsx
+++ b/Relevant Spreadsheets/Drivers.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="43">
   <si>
     <t>KIMI RÄIKKÖNEN</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>DRIVER NAME</t>
+  </si>
+  <si>
+    <t>''''''''''''''''''''''''''''''''''''</t>
   </si>
 </sst>
 </file>
@@ -202,7 +205,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -215,6 +218,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -497,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -527,13 +533,13 @@
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1">
       <c r="A2" s="5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>37</v>
@@ -555,13 +561,13 @@
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1">
       <c r="A4" s="5">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>37</v>
@@ -569,13 +575,13 @@
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1">
       <c r="A5" s="5">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>37</v>
@@ -597,27 +603,27 @@
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1">
       <c r="A7" s="5">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" customHeight="1">
       <c r="A8" s="5">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>37</v>
@@ -625,13 +631,13 @@
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1">
       <c r="A9" s="5">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>37</v>
@@ -639,13 +645,13 @@
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1">
       <c r="A10" s="5">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>37</v>
@@ -653,44 +659,44 @@
     </row>
     <row r="11" spans="1:4" ht="15" customHeight="1">
       <c r="A11" s="5">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1">
       <c r="A12" s="5">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1">
       <c r="A13" s="5">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1">
@@ -709,159 +715,162 @@
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1">
       <c r="A15" s="5">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1">
       <c r="A16" s="5">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1">
+    <row r="17" spans="1:5" ht="15" customHeight="1">
       <c r="A17" s="5">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1">
+    <row r="18" spans="1:5" ht="15" customHeight="1">
       <c r="A18" s="5">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" customHeight="1">
       <c r="A19" s="5">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1">
+    <row r="20" spans="1:5" ht="15" customHeight="1">
       <c r="A20" s="5">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15" customHeight="1">
       <c r="A21" s="5">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15" customHeight="1">
       <c r="A22" s="5">
+        <v>42</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>27</v>
-      </c>
       <c r="C22" s="5" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1">
+      <c r="E22" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15" customHeight="1">
       <c r="A23" s="5">
+        <v>44</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15" customHeight="1">
+      <c r="A24" s="5">
+        <v>53</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15" customHeight="1">
+      <c r="A25" s="5">
         <v>55</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B25" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C25" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1">
-      <c r="A24" s="5">
-        <v>33</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1">
-      <c r="A25" s="5">
-        <v>19</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="D25" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15" customHeight="1">
+    <row r="26" spans="1:5" ht="15" customHeight="1">
       <c r="A26" s="5">
         <v>77</v>
       </c>
@@ -875,21 +884,21 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" customHeight="1">
+    <row r="27" spans="1:5" ht="15" customHeight="1">
       <c r="A27" s="5">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15" customHeight="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15" customHeight="1">
       <c r="C28" s="2"/>
       <c r="D28" s="5"/>
     </row>
@@ -916,8 +925,8 @@
       <c r="C47" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="A2:C21">
-    <sortCondition ref="C2:C21"/>
+  <sortState ref="A2:D29">
+    <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Relevant Spreadsheets/Drivers.xlsx
+++ b/Relevant Spreadsheets/Drivers.xlsx
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="43">
-  <si>
-    <t>KIMI RÄIKKÖNEN</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="41">
   <si>
     <t>SEBASTIAN VETTEL</t>
   </si>
@@ -129,9 +126,6 @@
     <t>KEVIN MAGNUSSEN</t>
   </si>
   <si>
-    <t>FABIO LEIMER</t>
-  </si>
-  <si>
     <t>HAS CONTRACT</t>
   </si>
   <si>
@@ -147,7 +141,7 @@
     <t>DRIVER NAME</t>
   </si>
   <si>
-    <t>''''''''''''''''''''''''''''''''''''</t>
+    <t>KIMI RAIKKONEN</t>
   </si>
 </sst>
 </file>
@@ -210,9 +204,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -220,8 +211,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -503,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -518,392 +512,398 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" customHeight="1">
+      <c r="A2" s="4">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" customHeight="1">
+      <c r="A3" s="4">
+        <v>7</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" customHeight="1">
+      <c r="A4" s="4">
+        <v>11</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" customHeight="1">
+      <c r="A5" s="4">
+        <v>27</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" customHeight="1">
+      <c r="A6" s="4">
+        <v>8</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" customHeight="1">
+      <c r="A7" s="4">
+        <v>13</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" customHeight="1">
+      <c r="A8" s="4">
+        <v>30</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" customHeight="1">
+      <c r="A9" s="4">
+        <v>28</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" customHeight="1">
+      <c r="A10" s="4">
+        <v>53</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" customHeight="1">
+      <c r="A11" s="4">
+        <v>98</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" customHeight="1">
+      <c r="A12" s="4">
+        <v>14</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" customHeight="1">
+      <c r="A13" s="4">
+        <v>20</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" customHeight="1">
+      <c r="A14" s="4">
+        <v>22</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" customHeight="1">
+      <c r="A15" s="4">
+        <v>6</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15" customHeight="1">
+      <c r="A16" s="4">
+        <v>44</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15" customHeight="1">
+      <c r="A17" s="4">
+        <v>3</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15" customHeight="1">
+      <c r="A18" s="4">
+        <v>26</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15" customHeight="1">
+      <c r="A19" s="4">
+        <v>9</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15" customHeight="1">
+      <c r="A20" s="4">
+        <v>12</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15" customHeight="1">
+      <c r="A21" s="4">
+        <v>36</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15" customHeight="1">
+      <c r="A22" s="4">
+        <v>33</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15" customHeight="1">
+      <c r="A23" s="4">
+        <v>55</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15" customHeight="1">
+      <c r="A24" s="4">
+        <v>19</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15" customHeight="1">
+      <c r="A25" s="4">
         <v>41</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B25" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15" customHeight="1">
+      <c r="A26" s="4">
+        <v>77</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1">
-      <c r="A2" s="5">
-        <v>3</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1">
-      <c r="A3" s="5">
-        <v>5</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1">
-      <c r="A4" s="5">
-        <v>6</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1">
-      <c r="A5" s="5">
-        <v>7</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1">
-      <c r="A6" s="5">
-        <v>8</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1">
-      <c r="A7" s="5">
-        <v>9</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1">
-      <c r="A8" s="5">
-        <v>11</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="5" t="s">
+      <c r="C26" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1">
-      <c r="A9" s="5">
-        <v>12</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1">
-      <c r="A10" s="5">
-        <v>13</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1">
-      <c r="A11" s="5">
-        <v>14</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15" customHeight="1">
-      <c r="A12" s="5">
-        <v>19</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15" customHeight="1">
-      <c r="A13" s="5">
-        <v>20</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15" customHeight="1">
-      <c r="A14" s="5">
-        <v>22</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15" customHeight="1">
-      <c r="A15" s="5">
-        <v>26</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15" customHeight="1">
-      <c r="A16" s="5">
-        <v>27</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15" customHeight="1">
-      <c r="A17" s="5">
-        <v>28</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15" customHeight="1">
-      <c r="A18" s="5">
-        <v>30</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15" customHeight="1">
-      <c r="A19" s="5">
-        <v>33</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15" customHeight="1">
-      <c r="A20" s="5">
-        <v>36</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15" customHeight="1">
-      <c r="A21" s="5">
-        <v>41</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15" customHeight="1">
-      <c r="A22" s="5">
-        <v>42</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15" customHeight="1">
-      <c r="A23" s="5">
-        <v>44</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15" customHeight="1">
-      <c r="A24" s="5">
-        <v>53</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15" customHeight="1">
-      <c r="A25" s="5">
-        <v>55</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="15" customHeight="1">
-      <c r="A26" s="5">
-        <v>77</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15" customHeight="1">
-      <c r="A27" s="5">
-        <v>98</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15" customHeight="1">
-      <c r="C28" s="2"/>
-      <c r="D28" s="5"/>
+      <c r="D26" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15" customHeight="1">
+      <c r="A27" s="5"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="1:4" ht="15" customHeight="1">
+      <c r="A28" s="5"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:4" ht="15" customHeight="1">
+      <c r="A29" s="5"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="1:4" ht="15" customHeight="1">
+      <c r="A30" s="5"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+    </row>
+    <row r="39" spans="2:3" ht="15" customHeight="1">
+      <c r="B39" s="2"/>
+      <c r="C39" s="1"/>
     </row>
     <row r="40" spans="2:3" ht="15" customHeight="1">
-      <c r="B40" s="3"/>
       <c r="C40" s="1"/>
     </row>
     <row r="41" spans="2:3" ht="15" customHeight="1">
@@ -912,8 +912,8 @@
     <row r="42" spans="2:3" ht="15" customHeight="1">
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="2:3" ht="15" customHeight="1">
-      <c r="C43" s="1"/>
+    <row r="44" spans="2:3" ht="15" customHeight="1">
+      <c r="C44" s="1"/>
     </row>
     <row r="45" spans="2:3" ht="15" customHeight="1">
       <c r="C45" s="1"/>
@@ -921,12 +921,9 @@
     <row r="46" spans="2:3" ht="15" customHeight="1">
       <c r="C46" s="1"/>
     </row>
-    <row r="47" spans="2:3" ht="15" customHeight="1">
-      <c r="C47" s="1"/>
-    </row>
   </sheetData>
-  <sortState ref="A2:D29">
-    <sortCondition ref="A1"/>
+  <sortState ref="A2:D46">
+    <sortCondition ref="C2:C46"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
